--- a/check list.xlsx
+++ b/check list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="22300" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="2000" yWindow="460" windowWidth="22300" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
